--- a/vendor/pieni/site/views/docs/utility/utility.xlsx
+++ b/vendor/pieni/site/views/docs/utility/utility.xlsx
@@ -28,7 +28,11 @@
     <t xml:space="preserve">overview</t>
   </si>
   <si>
-    <t xml:space="preserve">ユーティリティを提供する
+    <t xml:space="preserve">&lt;p&gt;ユーティリティを提供する&lt;/p&gt;
+&lt;p&gt;
+認証もCRUDも使用しない静的ページのみのアプリケーションが必要とする機能を提供します。&lt;br&gt;
+helpers/utility.phpをrequireすることで、グローバル領域にクラスメソッドのラッパ関数を定義します。&lt;br&gt;
+&lt;/p&gt;
 &lt;h2&gt;Classes&lt;/h2&gt;
 &lt;ul&gt;
 &lt;li&gt;&lt;a href="../overview/utility/Utility"&gt;Utility&lt;/a&gt;&lt;/li&gt;
@@ -153,9 +157,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4261363636364"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="273.454545454545"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.4261363636364"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4772727272727"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="301.113636363636"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.4772727272727"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -163,7 +167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
